--- a/5_Judgemental_Derivations_Analysis/1_Tables/Nowcast_Series_full.xlsx
+++ b/5_Judgemental_Derivations_Analysis/1_Tables/Nowcast_Series_full.xlsx
@@ -429,7 +429,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2">
-        <v>40543.99999999999</v>
+        <v>40497</v>
       </c>
       <c r="B2">
         <v>0.3647970816233392</v>
@@ -455,7 +455,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2">
-        <v>40724.99999999999</v>
+        <v>40678</v>
       </c>
       <c r="B3">
         <v>0.119222303741742</v>
@@ -481,7 +481,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2">
-        <v>40908.99999999999</v>
+        <v>40862</v>
       </c>
       <c r="B4">
         <v>-0.1818677821223996</v>
@@ -507,7 +507,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2">
-        <v>41090.99999999999</v>
+        <v>41044</v>
       </c>
       <c r="B5">
         <v>0.2707092582566427</v>
@@ -533,7 +533,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="2">
-        <v>41274.99999999999</v>
+        <v>41228</v>
       </c>
       <c r="B6">
         <v>-0.5925127928898435</v>
@@ -559,7 +559,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="2">
-        <v>41455.99999999999</v>
+        <v>41409</v>
       </c>
       <c r="B7">
         <v>0.7214356569573426</v>
@@ -585,7 +585,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="2">
-        <v>41639.99999999999</v>
+        <v>41593</v>
       </c>
       <c r="B8">
         <v>0.3837572512271369</v>
@@ -611,7 +611,7 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="2">
-        <v>41820.99999999999</v>
+        <v>41774</v>
       </c>
       <c r="B9">
         <v>-0.1608782057348365</v>
@@ -637,7 +637,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="2">
-        <v>42004.99999999999</v>
+        <v>41958</v>
       </c>
       <c r="B10">
         <v>0.6996974281391782</v>
@@ -663,7 +663,7 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="2">
-        <v>42185.99999999999</v>
+        <v>42139</v>
       </c>
       <c r="B11">
         <v>0.4386374241717208</v>
@@ -689,7 +689,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="2">
-        <v>42369.99999999999</v>
+        <v>42323</v>
       </c>
       <c r="B12">
         <v>0.2686926711757547</v>
@@ -715,7 +715,7 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="2">
-        <v>42551.99999999999</v>
+        <v>42505</v>
       </c>
       <c r="B13">
         <v>0.4112593675744862</v>
@@ -741,7 +741,7 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="2">
-        <v>42735.99999999999</v>
+        <v>42689</v>
       </c>
       <c r="B14">
         <v>0.4269234262875818</v>
@@ -767,7 +767,7 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="2">
-        <v>42916.99999999999</v>
+        <v>42870</v>
       </c>
       <c r="B15">
         <v>0.6164567140176875</v>
@@ -793,7 +793,7 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="2">
-        <v>43100.99999999999</v>
+        <v>43054</v>
       </c>
       <c r="B16">
         <v>0.6069669247009128</v>
@@ -819,7 +819,7 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="2">
-        <v>43190.99999999999</v>
+        <v>43146</v>
       </c>
       <c r="B17">
         <v>0.2972807554428514</v>
@@ -845,7 +845,7 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="2">
-        <v>43281.99999999999</v>
+        <v>43235</v>
       </c>
       <c r="B18">
         <v>0.4515848892748554</v>
@@ -871,7 +871,7 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="2">
-        <v>43373.99999999999</v>
+        <v>43327</v>
       </c>
       <c r="B19">
         <v>-0.1988415319443278</v>
@@ -897,7 +897,7 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="2">
-        <v>43465.99999999999</v>
+        <v>43419</v>
       </c>
       <c r="B20">
         <v>0.01732351667388135</v>
@@ -923,7 +923,7 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="2">
-        <v>43555.99999999999</v>
+        <v>43511</v>
       </c>
       <c r="B21">
         <v>0.4243526457088377</v>
@@ -949,7 +949,7 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="2">
-        <v>43646.99999999999</v>
+        <v>43600</v>
       </c>
       <c r="B22">
         <v>-0.07468957146858211</v>
@@ -975,7 +975,7 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="2">
-        <v>43738.99999999999</v>
+        <v>43692</v>
       </c>
       <c r="B23">
         <v>0.08415934168693044</v>
@@ -1001,7 +1001,7 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="2">
-        <v>43830.99999999999</v>
+        <v>43784</v>
       </c>
       <c r="B24">
         <v>0.02799552071668639</v>
@@ -1027,7 +1027,7 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="2">
-        <v>43921.99999999999</v>
+        <v>43876</v>
       </c>
       <c r="B25">
         <v>-2.221807318894706</v>
@@ -1053,7 +1053,7 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="2">
-        <v>44012.99999999999</v>
+        <v>43966</v>
       </c>
       <c r="B26">
         <v>-9.690957649751999</v>
@@ -1079,7 +1079,7 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="2">
-        <v>44104.99999999999</v>
+        <v>44058</v>
       </c>
       <c r="B27">
         <v>8.48030415038547</v>
@@ -1105,7 +1105,7 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="2">
-        <v>44196.99999999999</v>
+        <v>44150</v>
       </c>
       <c r="B28">
         <v>0.3406326034063205</v>
@@ -1131,7 +1131,7 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="2">
-        <v>44286.99999999999</v>
+        <v>44242</v>
       </c>
       <c r="B29">
         <v>-1.806937868393072</v>
@@ -1157,7 +1157,7 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="2">
-        <v>44377.99999999999</v>
+        <v>44331</v>
       </c>
       <c r="B30">
         <v>1.633092118130258</v>
@@ -1183,7 +1183,7 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="2">
-        <v>44469.99999999999</v>
+        <v>44423</v>
       </c>
       <c r="B31">
         <v>1.694266296544459</v>
@@ -1209,7 +1209,7 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="2">
-        <v>44561.99999999999</v>
+        <v>44515</v>
       </c>
       <c r="B32">
         <v>-0.3471896406117954</v>
@@ -1235,7 +1235,7 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="2">
-        <v>44651.99999999999</v>
+        <v>44607</v>
       </c>
       <c r="B33">
         <v>0.2354048964218456</v>
@@ -1261,7 +1261,7 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="2">
-        <v>44742.99999999999</v>
+        <v>44696</v>
       </c>
       <c r="B34">
         <v>0.1397298556124878</v>
@@ -1287,7 +1287,7 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="2">
-        <v>44834.99999999999</v>
+        <v>44788</v>
       </c>
       <c r="B35">
         <v>0.4001488926112106</v>
@@ -1313,7 +1313,7 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="2">
-        <v>44926.99999999999</v>
+        <v>44880</v>
       </c>
       <c r="B36">
         <v>-0.4353061035472806</v>
@@ -1339,7 +1339,7 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="2">
-        <v>45016.99999999999</v>
+        <v>44972</v>
       </c>
       <c r="B37">
         <v>-0.3352267436446591</v>
@@ -1365,7 +1365,7 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="2">
-        <v>45107.99999999999</v>
+        <v>45061</v>
       </c>
       <c r="B38">
         <v>0.01855976243503714</v>
@@ -1391,7 +1391,7 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="2">
-        <v>45199.99999999999</v>
+        <v>45153</v>
       </c>
       <c r="B39">
         <v>-0.1296176279974082</v>
@@ -1417,7 +1417,7 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="2">
-        <v>45291.99999999999</v>
+        <v>45245</v>
       </c>
       <c r="B40">
         <v>-0.2870636170015632</v>
@@ -1443,7 +1443,7 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="2">
-        <v>45382.99999999999</v>
+        <v>45337</v>
       </c>
       <c r="B41">
         <v>0.2135958395245076</v>
@@ -1469,7 +1469,7 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="2">
-        <v>45473.99999999999</v>
+        <v>45427</v>
       </c>
       <c r="B42">
         <v>-0.06676204101096155</v>
@@ -1495,7 +1495,7 @@
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="2">
-        <v>45565.99999999999</v>
+        <v>45519</v>
       </c>
       <c r="B43">
         <v>0.1052128168340501</v>
@@ -1521,7 +1521,7 @@
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="2">
-        <v>45657.99999999999</v>
+        <v>45611</v>
       </c>
       <c r="B44">
         <v>-0.2006497229122814</v>
@@ -1547,7 +1547,7 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="2">
-        <v>45747.99999999999</v>
+        <v>45703</v>
       </c>
       <c r="B45">
         <v>0.4116802297750048</v>
@@ -1573,7 +1573,7 @@
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="2">
-        <v>45838.99999999999</v>
+        <v>45792</v>
       </c>
       <c r="B46">
         <v>-0.2766911554241067</v>
@@ -1599,7 +1599,7 @@
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="2">
-        <v>45930.99999999999</v>
+        <v>45884</v>
       </c>
       <c r="B47">
         <v>0</v>

--- a/5_Judgemental_Derivations_Analysis/1_Tables/Nowcast_Series_full.xlsx
+++ b/5_Judgemental_Derivations_Analysis/1_Tables/Nowcast_Series_full.xlsx
@@ -22,19 +22,19 @@
     <t>judgemental</t>
   </si>
   <si>
-    <t>naiveAR2</t>
+    <t>ifoCast</t>
   </si>
   <si>
-    <t>ifoCast</t>
+    <t>naiveAR2</t>
   </si>
   <si>
     <t>error_realized_minus_judgemental</t>
   </si>
   <si>
-    <t>error_realized_minus_naiveAR2</t>
+    <t>error_realized_minus_ifoCast</t>
   </si>
   <si>
-    <t>error_realized_minus_ifoCast</t>
+    <t>error_realized_minus_naiveAR2</t>
   </si>
 </sst>
 </file>
@@ -444,13 +444,13 @@
         <v>0.5278817260644753</v>
       </c>
       <c r="F2">
-        <v>-0.4352029183766609</v>
+        <v>0.4352029183766609</v>
       </c>
       <c r="G2">
-        <v>-0.08010366175749883</v>
+        <v>0.08010366175749883</v>
       </c>
       <c r="H2">
-        <v>-0.1630846444411361</v>
+        <v>0.1630846444411361</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,13 +470,13 @@
         <v>0.8158350159267664</v>
       </c>
       <c r="F3">
-        <v>-0.280777696258258</v>
+        <v>0.280777696258258</v>
       </c>
       <c r="G3">
-        <v>-0.233656786230793</v>
+        <v>0.233656786230793</v>
       </c>
       <c r="H3">
-        <v>-0.6966127121850244</v>
+        <v>0.6966127121850244</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,13 +496,13 @@
         <v>0.4070688708672613</v>
       </c>
       <c r="F4">
-        <v>0.01813221787760042</v>
+        <v>-0.01813221787760042</v>
       </c>
       <c r="G4">
-        <v>-0.4136519263293706</v>
+        <v>0.4136519263293706</v>
       </c>
       <c r="H4">
-        <v>-0.5889366529896609</v>
+        <v>0.5889366529896609</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,13 +522,13 @@
         <v>0.4060566115363017</v>
       </c>
       <c r="F5">
-        <v>0.1707092582566427</v>
+        <v>-0.1707092582566427</v>
       </c>
       <c r="G5">
-        <v>0.4077140872443247</v>
+        <v>-0.4077140872443247</v>
       </c>
       <c r="H5">
-        <v>-0.135347353279659</v>
+        <v>0.135347353279659</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,13 +548,13 @@
         <v>0.2658412787400625</v>
       </c>
       <c r="F6">
-        <v>-0.2925127928898435</v>
+        <v>0.2925127928898435</v>
       </c>
       <c r="G6">
-        <v>-0.5000022252070861</v>
+        <v>0.5000022252070861</v>
       </c>
       <c r="H6">
-        <v>-0.8583540716299061</v>
+        <v>0.8583540716299061</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,13 +574,13 @@
         <v>0.1668148420067005</v>
       </c>
       <c r="F7">
-        <v>-0.1785643430426489</v>
+        <v>0.1785643430426489</v>
       </c>
       <c r="G7">
-        <v>0.1855398129119595</v>
+        <v>-0.1855398129119595</v>
       </c>
       <c r="H7">
-        <v>0.5546208149506421</v>
+        <v>-0.5546208149506421</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,13 +600,13 @@
         <v>0.3071481657186778</v>
       </c>
       <c r="F8">
-        <v>0.0837572512271369</v>
+        <v>-0.0837572512271369</v>
       </c>
       <c r="G8">
-        <v>0.0473467753320379</v>
+        <v>-0.0473467753320379</v>
       </c>
       <c r="H8">
-        <v>0.07660908550845907</v>
+        <v>-0.07660908550845907</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,13 +626,13 @@
         <v>0.5498874657267171</v>
       </c>
       <c r="F9">
-        <v>-0.4608782057348194</v>
+        <v>0.4608782057348194</v>
       </c>
       <c r="G9">
-        <v>-0.2526362739620144</v>
+        <v>0.2526362739620144</v>
       </c>
       <c r="H9">
-        <v>-0.7107656714615536</v>
+        <v>0.7107656714615536</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,13 +652,13 @@
         <v>0.1736804633958236</v>
       </c>
       <c r="F10">
-        <v>0.4996974281391754</v>
+        <v>-0.4996974281391754</v>
       </c>
       <c r="G10">
-        <v>0.2935039203153312</v>
+        <v>-0.2935039203153312</v>
       </c>
       <c r="H10">
-        <v>0.5260169647433546</v>
+        <v>-0.5260169647433546</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,13 +678,13 @@
         <v>0.3086271608792364</v>
       </c>
       <c r="F11">
-        <v>-0.1813625758282837</v>
+        <v>0.1813625758282837</v>
       </c>
       <c r="G11">
-        <v>-0.04148753195498317</v>
+        <v>0.04148753195498317</v>
       </c>
       <c r="H11">
-        <v>0.1300102632924844</v>
+        <v>-0.1300102632924844</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,13 +704,13 @@
         <v>0.3194721332081325</v>
       </c>
       <c r="F12">
-        <v>-0.2013073288242442</v>
+        <v>0.2013073288242442</v>
       </c>
       <c r="G12">
-        <v>-0.1266839934041843</v>
+        <v>0.1266839934041843</v>
       </c>
       <c r="H12">
-        <v>-0.05077946203237782</v>
+        <v>0.05077946203237782</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,13 +730,13 @@
         <v>0.4935538258476527</v>
       </c>
       <c r="F13">
-        <v>0.07125936757448281</v>
+        <v>-0.07125936757448281</v>
       </c>
       <c r="G13">
-        <v>0.06035272133397324</v>
+        <v>-0.06035272133397324</v>
       </c>
       <c r="H13">
-        <v>-0.0822944582731665</v>
+        <v>0.0822944582731665</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,13 +756,13 @@
         <v>0.2854538301566019</v>
       </c>
       <c r="F14">
-        <v>-0.02307657371240679</v>
+        <v>0.02307657371240679</v>
       </c>
       <c r="G14">
-        <v>-0.6940883900913082</v>
+        <v>0.6940883900913082</v>
       </c>
       <c r="H14">
-        <v>0.1414695961309799</v>
+        <v>-0.1414695961309799</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,13 +782,13 @@
         <v>0.4880370991768954</v>
       </c>
       <c r="F15">
-        <v>-0.0835432859823011</v>
+        <v>0.0835432859823011</v>
       </c>
       <c r="G15">
-        <v>-0.1931203845655475</v>
+        <v>0.1931203845655475</v>
       </c>
       <c r="H15">
-        <v>0.1284196148407921</v>
+        <v>-0.1284196148407921</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,13 +808,13 @@
         <v>0.5892375486112547</v>
       </c>
       <c r="F16">
-        <v>0.05696692470090148</v>
+        <v>-0.05696692470090148</v>
       </c>
       <c r="G16">
-        <v>0.09191058748949987</v>
+        <v>-0.09191058748949987</v>
       </c>
       <c r="H16">
-        <v>0.01772937608965819</v>
+        <v>-0.01772937608965819</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,13 +834,13 @@
         <v>0.498268675818354</v>
       </c>
       <c r="F17">
-        <v>-0.4027192445571373</v>
+        <v>0.4027192445571373</v>
       </c>
       <c r="G17">
-        <v>-0.2443018737663426</v>
+        <v>0.2443018737663426</v>
       </c>
       <c r="H17">
-        <v>-0.2009879203755026</v>
+        <v>0.2009879203755026</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,13 +860,13 @@
         <v>0.3409278159840826</v>
       </c>
       <c r="F18">
-        <v>0.1515848892748725</v>
+        <v>-0.1515848892748725</v>
       </c>
       <c r="G18">
-        <v>0.5904410907377504</v>
+        <v>-0.5904410907377504</v>
       </c>
       <c r="H18">
-        <v>0.1106570732907728</v>
+        <v>-0.1106570732907728</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,13 +886,13 @@
         <v>0.3924672903298065</v>
       </c>
       <c r="F19">
-        <v>-0.6988415319442993</v>
+        <v>0.6988415319442993</v>
       </c>
       <c r="G19">
-        <v>-0.2492191183843223</v>
+        <v>0.2492191183843223</v>
       </c>
       <c r="H19">
-        <v>-0.5913088222741343</v>
+        <v>0.5913088222741343</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,13 +912,13 @@
         <v>0.1122805722851697</v>
       </c>
       <c r="F20">
-        <v>-0.1826764833261187</v>
+        <v>0.1826764833261187</v>
       </c>
       <c r="G20">
-        <v>-0.2301504875451686</v>
+        <v>0.2301504875451686</v>
       </c>
       <c r="H20">
-        <v>-0.09495705561128835</v>
+        <v>0.09495705561128835</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,13 +938,13 @@
         <v>0.1844683999603099</v>
       </c>
       <c r="F21">
-        <v>0.3243526457088434</v>
+        <v>-0.3243526457088434</v>
       </c>
       <c r="G21">
-        <v>-0.1769662401943143</v>
+        <v>0.1769662401943143</v>
       </c>
       <c r="H21">
-        <v>0.2398842457485278</v>
+        <v>-0.2398842457485278</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,13 +964,13 @@
         <v>0.3627307324263691</v>
       </c>
       <c r="F22">
-        <v>0.02531042853141789</v>
+        <v>-0.02531042853141789</v>
       </c>
       <c r="G22">
-        <v>0.2278976248361338</v>
+        <v>-0.2278976248361338</v>
       </c>
       <c r="H22">
-        <v>-0.4374203038949512</v>
+        <v>0.4374203038949512</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,13 +990,13 @@
         <v>0.1794263626245832</v>
       </c>
       <c r="F23">
-        <v>0.1841593416869248</v>
+        <v>-0.1841593416869248</v>
       </c>
       <c r="G23">
-        <v>-0.1517551169621146</v>
+        <v>0.1517551169621146</v>
       </c>
       <c r="H23">
-        <v>-0.09526702093765275</v>
+        <v>0.09526702093765275</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,13 +1016,13 @@
         <v>0.1814061084957765</v>
       </c>
       <c r="F24">
-        <v>-0.05200447928335454</v>
+        <v>0.05200447928335454</v>
       </c>
       <c r="G24">
-        <v>0.00387126286026539</v>
+        <v>-0.00387126286026539</v>
       </c>
       <c r="H24">
-        <v>-0.1534105877790901</v>
+        <v>0.1534105877790901</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,13 +1042,13 @@
         <v>0.1900831754885381</v>
       </c>
       <c r="F25">
-        <v>-2.3218073188947</v>
+        <v>2.3218073188947</v>
       </c>
       <c r="G25">
-        <v>-2.937382554894706</v>
+        <v>2.937382554894706</v>
       </c>
       <c r="H25">
-        <v>-2.411890494383244</v>
+        <v>2.411890494383244</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,13 +1068,13 @@
         <v>-0.6845717329199352</v>
       </c>
       <c r="F26">
-        <v>2.209042350248001</v>
+        <v>-2.209042350248001</v>
       </c>
       <c r="G26">
-        <v>-2.239176668751999</v>
+        <v>2.239176668751999</v>
       </c>
       <c r="H26">
-        <v>-9.006385916832064</v>
+        <v>9.006385916832064</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,13 +1094,13 @@
         <v>-7.463655357282573</v>
       </c>
       <c r="F27">
-        <v>1.840304150385469</v>
+        <v>-1.840304150385469</v>
       </c>
       <c r="G27">
-        <v>2.07460991238547</v>
+        <v>-2.07460991238547</v>
       </c>
       <c r="H27">
-        <v>15.94395950766804</v>
+        <v>-15.94395950766804</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,13 +1120,13 @@
         <v>-4.144592182330832</v>
       </c>
       <c r="F28">
-        <v>0.7406326034063262</v>
+        <v>-0.7406326034063262</v>
       </c>
       <c r="G28">
-        <v>1.48519888450069</v>
+        <v>-1.48519888450069</v>
       </c>
       <c r="H28">
-        <v>4.485224785737152</v>
+        <v>-4.485224785737152</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,13 +1146,13 @@
         <v>-0.8877061776737167</v>
       </c>
       <c r="F29">
-        <v>-1.097457868393073</v>
+        <v>1.097457868393073</v>
       </c>
       <c r="G29">
-        <v>-3.104110385393072</v>
+        <v>3.104110385393072</v>
       </c>
       <c r="H29">
-        <v>-0.9192316907193552</v>
+        <v>0.9192316907193552</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,13 +1172,13 @@
         <v>0.892999978012982</v>
       </c>
       <c r="F30">
-        <v>0.323092118130242</v>
+        <v>-0.323092118130242</v>
       </c>
       <c r="G30">
-        <v>0.959186549050742</v>
+        <v>-0.959186549050742</v>
       </c>
       <c r="H30">
-        <v>0.740092140117276</v>
+        <v>-0.740092140117276</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,13 +1198,13 @@
         <v>0.464029186385135</v>
       </c>
       <c r="F31">
-        <v>0.174266296544449</v>
+        <v>-0.174266296544449</v>
       </c>
       <c r="G31">
-        <v>1.346663732544459</v>
+        <v>-1.346663732544459</v>
       </c>
       <c r="H31">
-        <v>1.230237110159324</v>
+        <v>-1.230237110159324</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,13 +1224,13 @@
         <v>-0.6356350162097709</v>
       </c>
       <c r="F32">
-        <v>0.1928103593881966</v>
+        <v>-0.1928103593881966</v>
       </c>
       <c r="G32">
-        <v>-0.1009104006117954</v>
+        <v>0.1009104006117954</v>
       </c>
       <c r="H32">
-        <v>0.2884453755979755</v>
+        <v>-0.2884453755979755</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,13 +1250,13 @@
         <v>0.3241408423207837</v>
       </c>
       <c r="F33">
-        <v>-0.2298806514884979</v>
+        <v>0.2298806514884979</v>
       </c>
       <c r="G33">
-        <v>-2.040883219578154</v>
+        <v>2.040883219578154</v>
       </c>
       <c r="H33">
-        <v>-0.08873594589893813</v>
+        <v>0.08873594589893813</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,13 +1276,13 @@
         <v>0.6660072552246967</v>
       </c>
       <c r="F34">
-        <v>-0.2402701443875122</v>
+        <v>0.2402701443875122</v>
       </c>
       <c r="G34">
-        <v>-0.7884731043875122</v>
+        <v>0.7884731043875122</v>
       </c>
       <c r="H34">
-        <v>-0.526277399612209</v>
+        <v>0.526277399612209</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,13 +1302,13 @@
         <v>0.3437767272872988</v>
       </c>
       <c r="F35">
-        <v>0.3601488926112106</v>
+        <v>-0.3601488926112106</v>
       </c>
       <c r="G35">
-        <v>0.6780752046112106</v>
+        <v>-0.6780752046112106</v>
       </c>
       <c r="H35">
-        <v>0.05637216532391182</v>
+        <v>-0.05637216532391182</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,13 +1328,13 @@
         <v>0.4120709423816584</v>
       </c>
       <c r="F36">
-        <v>-0.1453061035472806</v>
+        <v>0.1453061035472806</v>
       </c>
       <c r="G36">
-        <v>-0.6866226315472805</v>
+        <v>0.6866226315472805</v>
       </c>
       <c r="H36">
-        <v>-0.847377045928939</v>
+        <v>0.847377045928939</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,13 +1354,13 @@
         <v>0.6519408127754134</v>
       </c>
       <c r="F37">
-        <v>-0.1273487862293673</v>
+        <v>0.1273487862293673</v>
       </c>
       <c r="G37">
-        <v>-0.8739636566446591</v>
+        <v>0.8739636566446591</v>
       </c>
       <c r="H37">
-        <v>-0.9871675564200725</v>
+        <v>0.9871675564200725</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,13 +1380,13 @@
         <v>0.8814549586592991</v>
       </c>
       <c r="F38">
-        <v>-0.1020880707435432</v>
+        <v>0.1020880707435432</v>
       </c>
       <c r="G38">
-        <v>0.3374241674350372</v>
+        <v>-0.3374241674350372</v>
       </c>
       <c r="H38">
-        <v>-0.862895196224262</v>
+        <v>0.862895196224262</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,13 +1406,13 @@
         <v>0.5350086232236873</v>
       </c>
       <c r="F39">
-        <v>0.0503823720025918</v>
+        <v>-0.0503823720025918</v>
       </c>
       <c r="G39">
-        <v>0.3448855210025918</v>
+        <v>-0.3448855210025918</v>
       </c>
       <c r="H39">
-        <v>-0.6646262512210954</v>
+        <v>0.6646262512210954</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,13 +1432,13 @@
         <v>0.5007400141027678</v>
       </c>
       <c r="F40">
-        <v>-0.3310636170015632</v>
+        <v>0.3310636170015632</v>
       </c>
       <c r="G40">
-        <v>0.003551125752694839</v>
+        <v>-0.003551125752694839</v>
       </c>
       <c r="H40">
-        <v>-0.787803631104331</v>
+        <v>0.787803631104331</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,13 +1458,13 @@
         <v>0.6148977852456914</v>
       </c>
       <c r="F41">
-        <v>0.2961058799880114</v>
+        <v>-0.2961058799880114</v>
       </c>
       <c r="G41">
-        <v>0.4502542815245076</v>
+        <v>-0.4502542815245076</v>
       </c>
       <c r="H41">
-        <v>-0.4013019457211838</v>
+        <v>0.4013019457211838</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,13 +1484,13 @@
         <v>0.5461074682008229</v>
       </c>
       <c r="F42">
-        <v>-0.3250145629684917</v>
+        <v>0.3250145629684917</v>
       </c>
       <c r="G42">
-        <v>-0.4416746280109616</v>
+        <v>0.4416746280109616</v>
       </c>
       <c r="H42">
-        <v>-0.6128695092117844</v>
+        <v>0.6128695092117844</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,13 +1510,13 @@
         <v>0.3984361203848173</v>
       </c>
       <c r="F43">
-        <v>0.1523883420589938</v>
+        <v>-0.1523883420589938</v>
       </c>
       <c r="G43">
-        <v>0.66448220283405</v>
+        <v>-0.66448220283405</v>
       </c>
       <c r="H43">
-        <v>-0.2932233035507672</v>
+        <v>0.2932233035507672</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,13 +1536,13 @@
         <v>0.4733275747052469</v>
       </c>
       <c r="F44">
-        <v>-0.4148795034612291</v>
+        <v>0.4148795034612291</v>
       </c>
       <c r="G44">
-        <v>-0.3360611849122814</v>
+        <v>0.3360611849122814</v>
       </c>
       <c r="H44">
-        <v>-0.6739772976175282</v>
+        <v>0.6739772976175282</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,13 +1562,13 @@
         <v>0.4738675049177161</v>
       </c>
       <c r="F45">
-        <v>0.1722430723603913</v>
+        <v>-0.1722430723603913</v>
       </c>
       <c r="G45">
-        <v>0.07958040477500478</v>
+        <v>-0.07958040477500478</v>
       </c>
       <c r="H45">
-        <v>-0.06218727514271133</v>
+        <v>0.06218727514271133</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,13 +1588,13 @@
         <v>0.3519456421565676</v>
       </c>
       <c r="F46">
-        <v>-0.32386998960715</v>
+        <v>0.32386998960715</v>
       </c>
       <c r="G46">
-        <v>-0.3054124294241067</v>
+        <v>0.3054124294241067</v>
       </c>
       <c r="H46">
-        <v>-0.6286367975806744</v>
+        <v>0.6286367975806744</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,13 +1614,13 @@
         <v>0.4328090033804217</v>
       </c>
       <c r="F47">
-        <v>-0.0959495356205764</v>
+        <v>0.0959495356205764</v>
       </c>
       <c r="G47">
-        <v>-0.042359665</v>
+        <v>0.042359665</v>
       </c>
       <c r="H47">
-        <v>-0.4328090033804217</v>
+        <v>0.4328090033804217</v>
       </c>
     </row>
   </sheetData>
